--- a/Mathematical Model/Scarcity Model/parameters_w_50/a_alpha/nonEmpty_diff_a_alpha5_firstrun.xlsx
+++ b/Mathematical Model/Scarcity Model/parameters_w_50/a_alpha/nonEmpty_diff_a_alpha5_firstrun.xlsx
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6041666666666666</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="C3">
-        <v>0.5123042505592841</v>
+        <v>0.5088495575221239</v>
       </c>
       <c r="D3">
-        <v>0.6377358490566037</v>
+        <v>0.6446886446886447</v>
       </c>
       <c r="E3">
-        <v>0.5053533190578159</v>
+        <v>0.5096359743040685</v>
       </c>
       <c r="F3">
-        <v>0.6509090909090909</v>
+        <v>0.6627906976744186</v>
       </c>
       <c r="G3">
-        <v>0.501039501039501</v>
+        <v>0.504149377593361</v>
       </c>
       <c r="H3">
-        <v>0.502</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.691358024691358</v>
+        <v>0.651685393258427</v>
       </c>
       <c r="C4">
-        <v>0.510250569476082</v>
+        <v>0.4988864142538976</v>
       </c>
       <c r="D4">
-        <v>0.6666666666666666</v>
+        <v>0.6326530612244898</v>
       </c>
       <c r="E4">
-        <v>0.4493865030674847</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="F4">
-        <v>0.7070707070707071</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="G4">
-        <v>0.4452773613193403</v>
+        <v>0.4463768115942029</v>
       </c>
       <c r="H4">
-        <v>0.504</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7211538461538461</v>
+        <v>0.71</v>
       </c>
       <c r="C5">
-        <v>0.4978070175438596</v>
+        <v>0.5011185682326622</v>
       </c>
       <c r="D5">
-        <v>0.6358024691358025</v>
+        <v>0.6168831168831169</v>
       </c>
       <c r="E5">
-        <v>0.4617524339360223</v>
+        <v>0.4736091298145507</v>
       </c>
       <c r="F5">
-        <v>0.6878980891719745</v>
+        <v>0.6598639455782312</v>
       </c>
       <c r="G5">
-        <v>0.4455040871934605</v>
+        <v>0.4584450402144772</v>
       </c>
       <c r="H5">
-        <v>0.498</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.68</v>
+        <v>0.706766917293233</v>
       </c>
       <c r="C6">
-        <v>0.4906054279749478</v>
+        <v>0.5032258064516129</v>
       </c>
       <c r="D6">
-        <v>0.6190476190476191</v>
+        <v>0.6107382550335571</v>
       </c>
       <c r="E6">
-        <v>0.4797843665768194</v>
+        <v>0.4842681258549932</v>
       </c>
       <c r="F6">
-        <v>0.6850393700787402</v>
+        <v>0.5923076923076923</v>
       </c>
       <c r="G6">
-        <v>0.4665792922673657</v>
+        <v>0.4728476821192053</v>
       </c>
       <c r="H6">
-        <v>0.488</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6888888888888889</v>
+        <v>0.7346938775510204</v>
       </c>
       <c r="C7">
-        <v>0.512396694214876</v>
+        <v>0.4989690721649485</v>
       </c>
       <c r="D7">
-        <v>0.625</v>
+        <v>0.5359477124183006</v>
       </c>
       <c r="E7">
-        <v>0.4884667571234735</v>
+        <v>0.4798927613941019</v>
       </c>
       <c r="F7">
-        <v>0.5526315789473685</v>
+        <v>0.5158730158730159</v>
       </c>
       <c r="G7">
-        <v>0.4670967741935484</v>
+        <v>0.4732142857142857</v>
       </c>
       <c r="H7">
-        <v>0.486</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7205882352941176</v>
+        <v>0.7591240875912408</v>
       </c>
       <c r="C8">
-        <v>0.5224171539961013</v>
+        <v>0.4960474308300395</v>
       </c>
       <c r="D8">
-        <v>0.5526315789473685</v>
+        <v>0.5214285714285715</v>
       </c>
       <c r="E8">
-        <v>0.4972972972972973</v>
+        <v>0.4953020134228188</v>
       </c>
       <c r="F8">
-        <v>0.5042735042735043</v>
+        <v>0.5188679245283019</v>
       </c>
       <c r="G8">
-        <v>0.4755784061696658</v>
+        <v>0.4768637532133676</v>
       </c>
       <c r="H8">
-        <v>0.458</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7103448275862069</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C9">
-        <v>0.5235507246376812</v>
+        <v>0.5108695652173914</v>
       </c>
       <c r="D9">
-        <v>0.5</v>
+        <v>0.5220588235294118</v>
       </c>
       <c r="E9">
-        <v>0.5013586956521739</v>
+        <v>0.4919354838709677</v>
       </c>
       <c r="F9">
-        <v>0.4033613445378151</v>
+        <v>0.4661016949152542</v>
       </c>
       <c r="G9">
-        <v>0.4718670076726343</v>
+        <v>0.4853503184713376</v>
       </c>
       <c r="H9">
-        <v>0.448</v>
+        <v>0.382</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7449664429530202</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="C10">
-        <v>0.5438898450946644</v>
+        <v>0.5043478260869565</v>
       </c>
       <c r="D10">
-        <v>0.5244755244755245</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="E10">
-        <v>0.5033738191632928</v>
+        <v>0.497986577181208</v>
       </c>
       <c r="F10">
-        <v>0.4090909090909091</v>
+        <v>0.536</v>
       </c>
       <c r="G10">
-        <v>0.4790874524714829</v>
+        <v>0.48124191461837</v>
       </c>
       <c r="H10">
-        <v>0.432</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.78125</v>
+        <v>0.7702702702702703</v>
       </c>
       <c r="C11">
-        <v>0.5424836601307189</v>
+        <v>0.5202020202020202</v>
       </c>
       <c r="D11">
-        <v>0.4868421052631579</v>
+        <v>0.5373134328358209</v>
       </c>
       <c r="E11">
-        <v>0.4959677419354839</v>
+        <v>0.5006784260515604</v>
       </c>
       <c r="F11">
-        <v>0.4587155963302753</v>
+        <v>0.4728682170542636</v>
       </c>
       <c r="G11">
-        <v>0.4691046658259773</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="H11">
-        <v>0.422</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7961783439490446</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="C12">
-        <v>0.5344563552833078</v>
+        <v>0.5307443365695793</v>
       </c>
       <c r="D12">
-        <v>0.5034965034965035</v>
+        <v>0.5033557046979866</v>
       </c>
       <c r="E12">
-        <v>0.4939597315436242</v>
+        <v>0.4931693989071038</v>
       </c>
       <c r="F12">
-        <v>0.4392523364485981</v>
+        <v>0.489051094890511</v>
       </c>
       <c r="G12">
-        <v>0.456140350877193</v>
+        <v>0.4773333333333333</v>
       </c>
       <c r="H12">
-        <v>0.414</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.754601226993865</v>
+        <v>0.8187919463087249</v>
       </c>
       <c r="C13">
-        <v>0.5341074020319303</v>
+        <v>0.5238828967642527</v>
       </c>
       <c r="D13">
-        <v>0.5075757575757576</v>
+        <v>0.5310344827586206</v>
       </c>
       <c r="E13">
-        <v>0.4867724867724867</v>
+        <v>0.4819444444444445</v>
       </c>
       <c r="F13">
-        <v>0.4516129032258064</v>
+        <v>0.5390625</v>
       </c>
       <c r="G13">
-        <v>0.456359102244389</v>
+        <v>0.4727030625832224</v>
       </c>
       <c r="H13">
-        <v>0.398</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7439024390243902</v>
+        <v>0.8141025641025641</v>
       </c>
       <c r="C14">
-        <v>0.546742209631728</v>
+        <v>0.5242290748898678</v>
       </c>
       <c r="D14">
-        <v>0.53125</v>
+        <v>0.5584415584415584</v>
       </c>
       <c r="E14">
-        <v>0.4886211512717537</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="F14">
-        <v>0.4574468085106383</v>
+        <v>0.5203252032520326</v>
       </c>
       <c r="G14">
-        <v>0.4530663329161452</v>
+        <v>0.4606451612903226</v>
       </c>
       <c r="H14">
-        <v>0.386</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7374301675977654</v>
+        <v>0.7908496732026143</v>
       </c>
       <c r="C15">
-        <v>0.5436241610738255</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="D15">
-        <v>0.5572519083969466</v>
+        <v>0.5681818181818182</v>
       </c>
       <c r="E15">
-        <v>0.4780876494023905</v>
+        <v>0.463013698630137</v>
       </c>
       <c r="F15">
-        <v>0.4313725490196079</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="G15">
-        <v>0.4465174129353234</v>
+        <v>0.4521072796934866</v>
       </c>
       <c r="H15">
-        <v>0.376</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7243243243243244</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="C16">
-        <v>0.5392670157068062</v>
+        <v>0.551440329218107</v>
       </c>
       <c r="D16">
-        <v>0.6015037593984962</v>
+        <v>0.5436241610738255</v>
       </c>
       <c r="E16">
-        <v>0.4763779527559055</v>
+        <v>0.461118690313779</v>
       </c>
       <c r="F16">
-        <v>0.4660194174757282</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="G16">
-        <v>0.4481897627965044</v>
+        <v>0.4568854568854569</v>
       </c>
       <c r="H16">
-        <v>0.352</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7471910112359551</v>
+        <v>0.803680981595092</v>
       </c>
       <c r="C17">
-        <v>0.5403022670025189</v>
+        <v>0.5502645502645502</v>
       </c>
       <c r="D17">
-        <v>0.5939849624060151</v>
+        <v>0.4675324675324675</v>
       </c>
       <c r="E17">
-        <v>0.4801587301587302</v>
+        <v>0.4628099173553719</v>
       </c>
       <c r="F17">
-        <v>0.4423076923076923</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="G17">
-        <v>0.44</v>
+        <v>0.4492939666238768</v>
       </c>
       <c r="H17">
-        <v>0.338</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7543859649122807</v>
+        <v>0.7935483870967742</v>
       </c>
       <c r="C18">
-        <v>0.5380894800483675</v>
+        <v>0.5490445859872611</v>
       </c>
       <c r="D18">
-        <v>0.6136363636363636</v>
+        <v>0.4652777777777778</v>
       </c>
       <c r="E18">
-        <v>0.4846461949265687</v>
+        <v>0.463013698630137</v>
       </c>
       <c r="F18">
-        <v>0.4485981308411215</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="G18">
-        <v>0.4318181818181818</v>
+        <v>0.446969696969697</v>
       </c>
       <c r="H18">
-        <v>0.34</v>
+        <v>0.322</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7613636363636364</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="C19">
-        <v>0.5441860465116279</v>
+        <v>0.5518867924528302</v>
       </c>
       <c r="D19">
-        <v>0.5878378378378378</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="E19">
-        <v>0.4879032258064516</v>
+        <v>0.4571805006587615</v>
       </c>
       <c r="F19">
-        <v>0.4210526315789473</v>
+        <v>0.4434782608695652</v>
       </c>
       <c r="G19">
-        <v>0.4219948849104859</v>
+        <v>0.4406991260923845</v>
       </c>
       <c r="H19">
-        <v>0.34</v>
+        <v>0.324</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7602339181286549</v>
+        <v>0.8037974683544303</v>
       </c>
       <c r="C20">
-        <v>0.5453527435610303</v>
+        <v>0.5525423728813559</v>
       </c>
       <c r="D20">
-        <v>0.5773809523809523</v>
+        <v>0.5702479338842975</v>
       </c>
       <c r="E20">
-        <v>0.4871099050203528</v>
+        <v>0.451783355350066</v>
       </c>
       <c r="F20">
-        <v>0.3826086956521739</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.4137931034482759</v>
+        <v>0.4483627204030227</v>
       </c>
       <c r="H20">
-        <v>0.342</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7602339181286549</v>
+        <v>0.7911392405063291</v>
       </c>
       <c r="C21">
-        <v>0.543010752688172</v>
+        <v>0.5553121577217963</v>
       </c>
       <c r="D21">
-        <v>0.5534591194968553</v>
+        <v>0.5481481481481482</v>
       </c>
       <c r="E21">
-        <v>0.4842249657064472</v>
+        <v>0.4522875816993464</v>
       </c>
       <c r="F21">
-        <v>0.4363636363636363</v>
+        <v>0.4</v>
       </c>
       <c r="G21">
-        <v>0.4180432020330369</v>
+        <v>0.4459627329192546</v>
       </c>
       <c r="H21">
-        <v>0.324</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7790697674418605</v>
+        <v>0.8163265306122449</v>
       </c>
       <c r="C22">
-        <v>0.5443298969072164</v>
+        <v>0.5660980810234542</v>
       </c>
       <c r="D22">
-        <v>0.5986842105263158</v>
+        <v>0.4820143884892086</v>
       </c>
       <c r="E22">
-        <v>0.4871794871794872</v>
+        <v>0.4592790387182911</v>
       </c>
       <c r="F22">
-        <v>0.4741379310344828</v>
+        <v>0.3893805309734513</v>
       </c>
       <c r="G22">
-        <v>0.4140526976160602</v>
+        <v>0.4406565656565656</v>
       </c>
       <c r="H22">
-        <v>0.308</v>
+        <v>0.298</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7976190476190477</v>
+        <v>0.7748344370860927</v>
       </c>
       <c r="C23">
-        <v>0.5461847389558233</v>
+        <v>0.5556690500510725</v>
       </c>
       <c r="D23">
-        <v>0.5774647887323944</v>
+        <v>0.4647887323943662</v>
       </c>
       <c r="E23">
-        <v>0.4713896457765668</v>
+        <v>0.4595687331536388</v>
       </c>
       <c r="F23">
-        <v>0.4311926605504587</v>
+        <v>0.3629032258064516</v>
       </c>
       <c r="G23">
-        <v>0.420584498094028</v>
+        <v>0.4394904458598726</v>
       </c>
       <c r="H23">
-        <v>0.29</v>
+        <v>0.298</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.764367816091954</v>
+        <v>0.78</v>
       </c>
       <c r="C24">
-        <v>0.5443159922928709</v>
+        <v>0.5589692765113974</v>
       </c>
       <c r="D24">
-        <v>0.5608108108108109</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="E24">
-        <v>0.4797297297297297</v>
+        <v>0.4529801324503311</v>
       </c>
       <c r="F24">
-        <v>0.4684684684684685</v>
+        <v>0.4766355140186916</v>
       </c>
       <c r="G24">
-        <v>0.4206549118387909</v>
+        <v>0.4409148665819568</v>
       </c>
       <c r="H24">
-        <v>0.298</v>
+        <v>0.286</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7771428571428571</v>
+        <v>0.7278481012658228</v>
       </c>
       <c r="C25">
-        <v>0.5505725190839694</v>
+        <v>0.559191530317613</v>
       </c>
       <c r="D25">
-        <v>0.5655172413793104</v>
+        <v>0.576</v>
       </c>
       <c r="E25">
-        <v>0.4861878453038674</v>
+        <v>0.4324675324675324</v>
       </c>
       <c r="F25">
-        <v>0.4509803921568628</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="G25">
-        <v>0.4148527528809219</v>
+        <v>0.4280350438047559</v>
       </c>
       <c r="H25">
-        <v>0.292</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.7712418300653595</v>
+        <v>0.7832167832167832</v>
       </c>
       <c r="C26">
-        <v>0.5462264150943397</v>
+        <v>0.5688847235238987</v>
       </c>
       <c r="D26">
-        <v>0.535483870967742</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="E26">
-        <v>0.4865629420084865</v>
+        <v>0.4442988204456094</v>
       </c>
       <c r="F26">
-        <v>0.4146341463414634</v>
+        <v>0.5137614678899083</v>
       </c>
       <c r="G26">
-        <v>0.41015625</v>
+        <v>0.4289308176100629</v>
       </c>
       <c r="H26">
-        <v>0.282</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.7733333333333333</v>
+        <v>0.8111888111888111</v>
       </c>
       <c r="C27">
-        <v>0.5519421860885275</v>
+        <v>0.5587443946188341</v>
       </c>
       <c r="D27">
-        <v>0.5668789808917197</v>
+        <v>0.5149253731343284</v>
       </c>
       <c r="E27">
-        <v>0.4859943977591036</v>
+        <v>0.4435590969455511</v>
       </c>
       <c r="F27">
-        <v>0.4461538461538462</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="G27">
-        <v>0.4104575163398693</v>
+        <v>0.4307304785894207</v>
       </c>
       <c r="H27">
-        <v>0.28</v>
+        <v>0.242</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.7662337662337663</v>
+        <v>0.785234899328859</v>
       </c>
       <c r="C28">
-        <v>0.5528384279475983</v>
+        <v>0.5538194444444444</v>
       </c>
       <c r="D28">
-        <v>0.5782312925170068</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="E28">
-        <v>0.483739837398374</v>
+        <v>0.4458930899608866</v>
       </c>
       <c r="F28">
-        <v>0.4666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="G28">
-        <v>0.4002557544757033</v>
+        <v>0.4307304785894207</v>
       </c>
       <c r="H28">
-        <v>0.282</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.8333333333333334</v>
+        <v>0.7770700636942676</v>
       </c>
       <c r="C29">
-        <v>0.5467687074829932</v>
+        <v>0.5566037735849056</v>
       </c>
       <c r="D29">
-        <v>0.553030303030303</v>
+        <v>0.5785123966942148</v>
       </c>
       <c r="E29">
-        <v>0.4754966887417219</v>
+        <v>0.4397350993377483</v>
       </c>
       <c r="F29">
         <v>0.4672897196261682</v>
       </c>
       <c r="G29">
-        <v>0.3884711779448621</v>
+        <v>0.4254777070063694</v>
       </c>
       <c r="H29">
-        <v>0.278</v>
+        <v>0.238</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.8</v>
+        <v>0.7533333333333333</v>
       </c>
       <c r="C30">
-        <v>0.5418760469011725</v>
+        <v>0.5592216582064298</v>
       </c>
       <c r="D30">
-        <v>0.6293103448275862</v>
+        <v>0.55</v>
       </c>
       <c r="E30">
-        <v>0.4798927613941019</v>
+        <v>0.4456233421750663</v>
       </c>
       <c r="F30">
-        <v>0.53</v>
+        <v>0.456896551724138</v>
       </c>
       <c r="G30">
-        <v>0.3838383838383838</v>
+        <v>0.4254498714652956</v>
       </c>
       <c r="H30">
-        <v>0.278</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.7696335078534031</v>
+        <v>0.7658227848101266</v>
       </c>
       <c r="C31">
-        <v>0.5438448566610455</v>
+        <v>0.5694214876033058</v>
       </c>
       <c r="D31">
-        <v>0.5531914893617021</v>
+        <v>0.5441176470588235</v>
       </c>
       <c r="E31">
-        <v>0.4817813765182186</v>
+        <v>0.4468371467025572</v>
       </c>
       <c r="F31">
-        <v>0.4827586206896552</v>
+        <v>0.4</v>
       </c>
       <c r="G31">
-        <v>0.3803363518758086</v>
+        <v>0.4217948717948718</v>
       </c>
       <c r="H31">
-        <v>0.264</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.7840909090909091</v>
+        <v>0.7662337662337663</v>
       </c>
       <c r="C32">
-        <v>0.542016806722689</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="D32">
-        <v>0.506578947368421</v>
+        <v>0.4855072463768116</v>
       </c>
       <c r="E32">
-        <v>0.4883401920438957</v>
+        <v>0.4415243101182654</v>
       </c>
       <c r="F32">
-        <v>0.453781512605042</v>
+        <v>0.412280701754386</v>
       </c>
       <c r="G32">
-        <v>0.3816993464052287</v>
+        <v>0.4269377382465057</v>
       </c>
       <c r="H32">
-        <v>0.266</v>
+        <v>0.262</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.791907514450867</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="C33">
-        <v>0.5447154471544715</v>
+        <v>0.5643251775848461</v>
       </c>
       <c r="D33">
-        <v>0.527027027027027</v>
+        <v>0.495575221238938</v>
       </c>
       <c r="E33">
-        <v>0.4897119341563786</v>
+        <v>0.4375</v>
       </c>
       <c r="F33">
-        <v>0.4827586206896552</v>
+        <v>0.4631578947368421</v>
       </c>
       <c r="G33">
-        <v>0.386392811296534</v>
+        <v>0.4265822784810127</v>
       </c>
       <c r="H33">
-        <v>0.258</v>
+        <v>0.268</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.7875</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="C34">
-        <v>0.5418641390205371</v>
+        <v>0.5582635186595583</v>
       </c>
       <c r="D34">
-        <v>0.54</v>
+        <v>0.5401459854014599</v>
       </c>
       <c r="E34">
-        <v>0.486449864498645</v>
+        <v>0.4335483870967742</v>
       </c>
       <c r="F34">
-        <v>0.4952380952380953</v>
+        <v>0.4869565217391305</v>
       </c>
       <c r="G34">
-        <v>0.3819796954314721</v>
+        <v>0.4128553770086527</v>
       </c>
       <c r="H34">
-        <v>0.266</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.7948717948717948</v>
+        <v>0.7897727272727273</v>
       </c>
       <c r="C35">
-        <v>0.540273556231003</v>
+        <v>0.5559729526671675</v>
       </c>
       <c r="D35">
-        <v>0.5671641791044776</v>
+        <v>0.6016260162601627</v>
       </c>
       <c r="E35">
-        <v>0.4846461949265687</v>
+        <v>0.4234234234234234</v>
       </c>
       <c r="F35">
-        <v>0.4666666666666667</v>
+        <v>0.4711538461538461</v>
       </c>
       <c r="G35">
-        <v>0.379182156133829</v>
+        <v>0.4095940959409594</v>
       </c>
       <c r="H35">
-        <v>0.266</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.7756410256410257</v>
+        <v>0.825136612021858</v>
       </c>
       <c r="C36">
-        <v>0.5380073800738008</v>
+        <v>0.5532390171258377</v>
       </c>
       <c r="D36">
-        <v>0.6076923076923076</v>
+        <v>0.5045871559633027</v>
       </c>
       <c r="E36">
-        <v>0.48046875</v>
+        <v>0.4235751295336788</v>
       </c>
       <c r="F36">
-        <v>0.4456521739130435</v>
+        <v>0.5421686746987951</v>
       </c>
       <c r="G36">
-        <v>0.3783783783783784</v>
+        <v>0.4039900249376558</v>
       </c>
       <c r="H36">
-        <v>0.258</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.7531645569620253</v>
+        <v>0.7947368421052632</v>
       </c>
       <c r="C37">
-        <v>0.5416364952932657</v>
+        <v>0.5445329471397538</v>
       </c>
       <c r="D37">
-        <v>0.5772357723577236</v>
+        <v>0.5289256198347108</v>
       </c>
       <c r="E37">
-        <v>0.480946123521682</v>
+        <v>0.4274711168164313</v>
       </c>
       <c r="F37">
-        <v>0.4318181818181818</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="G37">
-        <v>0.3759213759213759</v>
+        <v>0.4004884004884005</v>
       </c>
       <c r="H37">
-        <v>0.266</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.7625</v>
+        <v>0.8186528497409327</v>
       </c>
       <c r="C38">
-        <v>0.5434015525758645</v>
+        <v>0.5495367070563079</v>
       </c>
       <c r="D38">
-        <v>0.518796992481203</v>
+        <v>0.5321100917431193</v>
       </c>
       <c r="E38">
-        <v>0.4922279792746114</v>
+        <v>0.4287548138639281</v>
       </c>
       <c r="F38">
-        <v>0.422680412371134</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="G38">
-        <v>0.3811274509803921</v>
+        <v>0.3980099502487562</v>
       </c>
       <c r="H38">
-        <v>0.258</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.7592592592592593</v>
+        <v>0.8208092485549133</v>
       </c>
       <c r="C39">
-        <v>0.5375</v>
+        <v>0.5418994413407822</v>
       </c>
       <c r="D39">
-        <v>0.5223880597014925</v>
+        <v>0.4344262295081967</v>
       </c>
       <c r="E39">
-        <v>0.4967405475880052</v>
+        <v>0.4312977099236641</v>
       </c>
       <c r="F39">
-        <v>0.3711340206185567</v>
+        <v>0.485981308411215</v>
       </c>
       <c r="G39">
-        <v>0.3823529411764706</v>
+        <v>0.3962962962962963</v>
       </c>
       <c r="H39">
-        <v>0.258</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.7844311377245509</v>
+        <v>0.7966101694915254</v>
       </c>
       <c r="C40">
-        <v>0.5415236787920384</v>
+        <v>0.5477318889641164</v>
       </c>
       <c r="D40">
-        <v>0.5153846153846153</v>
+        <v>0.5039370078740157</v>
       </c>
       <c r="E40">
-        <v>0.4892761394101877</v>
+        <v>0.4361290322580645</v>
       </c>
       <c r="F40">
-        <v>0.4257425742574257</v>
+        <v>0.5</v>
       </c>
       <c r="G40">
-        <v>0.3916876574307305</v>
+        <v>0.3898514851485149</v>
       </c>
       <c r="H40">
-        <v>0.248</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.7972972972972973</v>
+        <v>0.8083832335329342</v>
       </c>
       <c r="C41">
-        <v>0.5365358592692828</v>
+        <v>0.5449101796407185</v>
       </c>
       <c r="D41">
-        <v>0.5140845070422535</v>
+        <v>0.4921875</v>
       </c>
       <c r="E41">
-        <v>0.4879032258064516</v>
+        <v>0.4307891332470893</v>
       </c>
       <c r="F41">
-        <v>0.4715447154471545</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="G41">
-        <v>0.3799237611181703</v>
+        <v>0.3850931677018634</v>
       </c>
       <c r="H41">
-        <v>0.26</v>
+        <v>0.286</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.7548387096774194</v>
+        <v>0.7975460122699386</v>
       </c>
       <c r="C42">
-        <v>0.5336381450032658</v>
+        <v>0.5456902138690862</v>
       </c>
       <c r="D42">
-        <v>0.5579710144927537</v>
+        <v>0.5625</v>
       </c>
       <c r="E42">
-        <v>0.4839572192513369</v>
+        <v>0.4198966408268734</v>
       </c>
       <c r="F42">
-        <v>0.4824561403508772</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="G42">
-        <v>0.3734015345268542</v>
+        <v>0.392638036809816</v>
       </c>
       <c r="H42">
-        <v>0.254</v>
+        <v>0.286</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.7748344370860927</v>
+        <v>0.7904191616766467</v>
       </c>
       <c r="C43">
-        <v>0.5327342747111682</v>
+        <v>0.5488817891373802</v>
       </c>
       <c r="D43">
-        <v>0.6097560975609756</v>
+        <v>0.5245901639344263</v>
       </c>
       <c r="E43">
-        <v>0.4745098039215686</v>
+        <v>0.4204398447606727</v>
       </c>
       <c r="F43">
-        <v>0.4954954954954955</v>
+        <v>0.4946236559139785</v>
       </c>
       <c r="G43">
-        <v>0.3745318352059925</v>
+        <v>0.3915211970074813</v>
       </c>
       <c r="H43">
-        <v>0.254</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,25 +1518,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.71875</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C44">
-        <v>0.5315656565656566</v>
+        <v>0.5460277427490542</v>
       </c>
       <c r="D44">
-        <v>0.6470588235294118</v>
+        <v>0.4566929133858268</v>
       </c>
       <c r="E44">
-        <v>0.4755154639175257</v>
+        <v>0.4189723320158103</v>
       </c>
       <c r="F44">
-        <v>0.5294117647058824</v>
+        <v>0.3904761904761905</v>
       </c>
       <c r="G44">
-        <v>0.3759398496240601</v>
+        <v>0.392991239048811</v>
       </c>
       <c r="H44">
-        <v>0.258</v>
+        <v>0.278</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.711764705882353</v>
+        <v>0.8</v>
       </c>
       <c r="C45">
-        <v>0.5324274243360099</v>
+        <v>0.5448318804483188</v>
       </c>
       <c r="D45">
-        <v>0.5546875</v>
+        <v>0.4796747967479675</v>
       </c>
       <c r="E45">
-        <v>0.4730077120822622</v>
+        <v>0.4310344827586207</v>
       </c>
       <c r="F45">
-        <v>0.5357142857142857</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="G45">
-        <v>0.3746898263027295</v>
+        <v>0.403041825095057</v>
       </c>
       <c r="H45">
-        <v>0.252</v>
+        <v>0.268</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.7730061349693251</v>
+        <v>0.8117647058823529</v>
       </c>
       <c r="C46">
-        <v>0.5300245098039216</v>
+        <v>0.5464547677261614</v>
       </c>
       <c r="D46">
-        <v>0.6198347107438017</v>
+        <v>0.46875</v>
       </c>
       <c r="E46">
-        <v>0.4714285714285714</v>
+        <v>0.4345549738219895</v>
       </c>
       <c r="F46">
-        <v>0.5051546391752577</v>
+        <v>0.4</v>
       </c>
       <c r="G46">
-        <v>0.3726708074534161</v>
+        <v>0.4005069708491762</v>
       </c>
       <c r="H46">
-        <v>0.252</v>
+        <v>0.274</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.8141025641025641</v>
+        <v>0.7861271676300579</v>
       </c>
       <c r="C47">
-        <v>0.5254643499101258</v>
+        <v>0.5419664268585132</v>
       </c>
       <c r="D47">
-        <v>0.608</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="E47">
-        <v>0.4696774193548387</v>
+        <v>0.430609597924773</v>
       </c>
       <c r="F47">
-        <v>0.5204081632653061</v>
+        <v>0.3944954128440367</v>
       </c>
       <c r="G47">
-        <v>0.3801955990220049</v>
+        <v>0.3896595208070618</v>
       </c>
       <c r="H47">
-        <v>0.256</v>
+        <v>0.262</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.7777777777777778</v>
+        <v>0.7528735632183908</v>
       </c>
       <c r="C48">
-        <v>0.5177095631641087</v>
+        <v>0.5451843043995244</v>
       </c>
       <c r="D48">
-        <v>0.5241935483870968</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="E48">
-        <v>0.4732724902216427</v>
+        <v>0.4177545691906005</v>
       </c>
       <c r="F48">
-        <v>0.4680851063829787</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="G48">
-        <v>0.379652605459057</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="H48">
-        <v>0.26</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.7935483870967742</v>
+        <v>0.7962962962962963</v>
       </c>
       <c r="C49">
-        <v>0.5235602094240838</v>
+        <v>0.5455600696459664</v>
       </c>
       <c r="D49">
-        <v>0.556390977443609</v>
+        <v>0.528169014084507</v>
       </c>
       <c r="E49">
-        <v>0.4807947019867549</v>
+        <v>0.4156862745098039</v>
       </c>
       <c r="F49">
-        <v>0.4476190476190476</v>
+        <v>0.4789915966386555</v>
       </c>
       <c r="G49">
-        <v>0.3932584269662922</v>
+        <v>0.3909774436090225</v>
       </c>
       <c r="H49">
-        <v>0.252</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.8216560509554141</v>
+        <v>0.7710843373493976</v>
       </c>
       <c r="C50">
-        <v>0.5220883534136547</v>
+        <v>0.5444191343963554</v>
       </c>
       <c r="D50">
-        <v>0.5182481751824818</v>
+        <v>0.5905511811023622</v>
       </c>
       <c r="E50">
-        <v>0.4859437751004016</v>
+        <v>0.4108322324966975</v>
       </c>
       <c r="F50">
-        <v>0.4038461538461539</v>
+        <v>0.4368932038834951</v>
       </c>
       <c r="G50">
-        <v>0.3919089759797724</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="H50">
-        <v>0.248</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.8222222222222222</v>
+        <v>0.7960526315789473</v>
       </c>
       <c r="C51">
-        <v>0.517454954954955</v>
+        <v>0.546426561620709</v>
       </c>
       <c r="D51">
         <v>0.5342465753424658</v>
       </c>
       <c r="E51">
-        <v>0.484</v>
+        <v>0.416557161629435</v>
       </c>
       <c r="F51">
-        <v>0.4299065420560748</v>
+        <v>0.4260869565217391</v>
       </c>
       <c r="G51">
-        <v>0.3890274314214464</v>
+        <v>0.3853904282115869</v>
       </c>
       <c r="H51">
-        <v>0.272</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.7302631578947368</v>
+        <v>0.7784810126582279</v>
       </c>
       <c r="C52">
-        <v>0.5213815789473685</v>
+        <v>0.5456062291434928</v>
       </c>
       <c r="D52">
-        <v>0.5669291338582677</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="E52">
-        <v>0.4772727272727273</v>
+        <v>0.4203296703296703</v>
       </c>
       <c r="F52">
-        <v>0.4639175257731959</v>
+        <v>0.3805309734513274</v>
       </c>
       <c r="G52">
-        <v>0.3759398496240601</v>
+        <v>0.3852140077821012</v>
       </c>
       <c r="H52">
-        <v>0.278</v>
+        <v>0.274</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.7358490566037735</v>
+        <v>0.7790697674418605</v>
       </c>
       <c r="C53">
-        <v>0.526829268292683</v>
+        <v>0.5398570643210555</v>
       </c>
       <c r="D53">
-        <v>0.4881889763779528</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E53">
-        <v>0.4674479166666667</v>
+        <v>0.4112021857923497</v>
       </c>
       <c r="F53">
-        <v>0.4666666666666667</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="G53">
-        <v>0.3794808405438813</v>
+        <v>0.3769230769230769</v>
       </c>
       <c r="H53">
-        <v>0.266</v>
+        <v>0.278</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.7712418300653595</v>
+        <v>0.7976190476190477</v>
       </c>
       <c r="C54">
-        <v>0.5240641711229946</v>
+        <v>0.5393073117097307</v>
       </c>
       <c r="D54">
-        <v>0.4661016949152542</v>
+        <v>0.6197183098591549</v>
       </c>
       <c r="E54">
-        <v>0.4740932642487047</v>
+        <v>0.4027210884353741</v>
       </c>
       <c r="F54">
-        <v>0.4953271028037383</v>
+        <v>0.4375</v>
       </c>
       <c r="G54">
-        <v>0.3753086419753087</v>
+        <v>0.3732484076433121</v>
       </c>
       <c r="H54">
-        <v>0.274</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.7945205479452054</v>
+        <v>0.7514792899408284</v>
       </c>
       <c r="C55">
-        <v>0.519453207150368</v>
+        <v>0.5385869565217392</v>
       </c>
       <c r="D55">
-        <v>0.4621848739495799</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="E55">
-        <v>0.4748387096774194</v>
+        <v>0.4084699453551913</v>
       </c>
       <c r="F55">
-        <v>0.4747474747474748</v>
+        <v>0.4521739130434783</v>
       </c>
       <c r="G55">
-        <v>0.3804213135068154</v>
+        <v>0.3685567010309279</v>
       </c>
       <c r="H55">
-        <v>0.268</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.7763157894736842</v>
+        <v>0.7636363636363637</v>
       </c>
       <c r="C56">
-        <v>0.5163127912998446</v>
+        <v>0.5442359249329759</v>
       </c>
       <c r="D56">
-        <v>0.487603305785124</v>
+        <v>0.54</v>
       </c>
       <c r="E56">
-        <v>0.4773022049286641</v>
+        <v>0.4139344262295082</v>
       </c>
       <c r="F56">
-        <v>0.4615384615384616</v>
+        <v>0.4132231404958678</v>
       </c>
       <c r="G56">
-        <v>0.3774752475247525</v>
+        <v>0.3609693877551021</v>
       </c>
       <c r="H56">
-        <v>0.272</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.74375</v>
+        <v>0.7625</v>
       </c>
       <c r="C57">
-        <v>0.5159629248197735</v>
+        <v>0.5439153439153439</v>
       </c>
       <c r="D57">
-        <v>0.5039370078740157</v>
+        <v>0.5177304964539007</v>
       </c>
       <c r="E57">
-        <v>0.4743758212877792</v>
+        <v>0.4227642276422764</v>
       </c>
       <c r="F57">
-        <v>0.4705882352941176</v>
+        <v>0.4234234234234234</v>
       </c>
       <c r="G57">
-        <v>0.3732833957553059</v>
+        <v>0.3560411311053985</v>
       </c>
       <c r="H57">
-        <v>0.278</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.7579617834394905</v>
+        <v>0.7592592592592593</v>
       </c>
       <c r="C58">
-        <v>0.517118037812979</v>
+        <v>0.5420365535248042</v>
       </c>
       <c r="D58">
-        <v>0.5263157894736842</v>
+        <v>0.5448275862068965</v>
       </c>
       <c r="E58">
-        <v>0.4754316069057105</v>
+        <v>0.4206989247311828</v>
       </c>
       <c r="F58">
-        <v>0.4727272727272727</v>
+        <v>0.3577981651376147</v>
       </c>
       <c r="G58">
-        <v>0.3663739021329988</v>
+        <v>0.3495518565941101</v>
       </c>
       <c r="H58">
-        <v>0.27</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.7231638418079096</v>
+        <v>0.8066666666666666</v>
       </c>
       <c r="C59">
-        <v>0.515015015015015</v>
+        <v>0.5400103252452245</v>
       </c>
       <c r="D59">
-        <v>0.5328467153284672</v>
+        <v>0.5401459854014599</v>
       </c>
       <c r="E59">
-        <v>0.4706649282920469</v>
+        <v>0.4127829560585886</v>
       </c>
       <c r="F59">
-        <v>0.4782608695652174</v>
+        <v>0.4356435643564356</v>
       </c>
       <c r="G59">
-        <v>0.3629536921151439</v>
+        <v>0.3542713567839196</v>
       </c>
       <c r="H59">
-        <v>0.274</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.711864406779661</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="C60">
-        <v>0.5183324962330487</v>
+        <v>0.5349421820010055</v>
       </c>
       <c r="D60">
-        <v>0.5371900826446281</v>
+        <v>0.5772357723577236</v>
       </c>
       <c r="E60">
-        <v>0.4754316069057105</v>
+        <v>0.4134366925064599</v>
       </c>
       <c r="F60">
-        <v>0.4854368932038835</v>
+        <v>0.4947368421052631</v>
       </c>
       <c r="G60">
-        <v>0.3636363636363636</v>
+        <v>0.343030303030303</v>
       </c>
       <c r="H60">
-        <v>0.268</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,22 +1960,22 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.7294117647058823</v>
+        <v>0.7732558139534884</v>
       </c>
       <c r="C61">
-        <v>0.5180246913580246</v>
+        <v>0.5320962888665998</v>
       </c>
       <c r="D61">
-        <v>0.5035971223021583</v>
+        <v>0.5779816513761468</v>
       </c>
       <c r="E61">
-        <v>0.4706649282920469</v>
+        <v>0.4055766793409379</v>
       </c>
       <c r="F61">
-        <v>0.4102564102564102</v>
+        <v>0.5054945054945055</v>
       </c>
       <c r="G61">
-        <v>0.360450563204005</v>
+        <v>0.3429951690821256</v>
       </c>
       <c r="H61">
         <v>0.262</v>
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.7231638418079096</v>
+        <v>0.8159509202453987</v>
       </c>
       <c r="C62">
-        <v>0.5166747220879652</v>
+        <v>0.5337636544190665</v>
       </c>
       <c r="D62">
-        <v>0.5284552845528455</v>
+        <v>0.5391304347826087</v>
       </c>
       <c r="E62">
-        <v>0.4682230869001297</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="F62">
-        <v>0.4672897196261682</v>
+        <v>0.495049504950495</v>
       </c>
       <c r="G62">
-        <v>0.3619402985074627</v>
+        <v>0.3493234932349323</v>
       </c>
       <c r="H62">
-        <v>0.258</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.7639751552795031</v>
+        <v>0.8364779874213837</v>
       </c>
       <c r="C63">
-        <v>0.5171249397009166</v>
+        <v>0.5299901671583087</v>
       </c>
       <c r="D63">
-        <v>0.5555555555555556</v>
+        <v>0.4960629921259843</v>
       </c>
       <c r="E63">
-        <v>0.4620418848167539</v>
+        <v>0.4216710182767624</v>
       </c>
       <c r="F63">
-        <v>0.5056179775280899</v>
+        <v>0.4205607476635514</v>
       </c>
       <c r="G63">
-        <v>0.3558897243107769</v>
+        <v>0.3545108005082592</v>
       </c>
       <c r="H63">
-        <v>0.266</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.738562091503268</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="C64">
-        <v>0.5134243994347621</v>
+        <v>0.5249394673123486</v>
       </c>
       <c r="D64">
-        <v>0.5071428571428571</v>
+        <v>0.5328467153284672</v>
       </c>
       <c r="E64">
-        <v>0.447741935483871</v>
+        <v>0.4214659685863874</v>
       </c>
       <c r="F64">
-        <v>0.4766355140186916</v>
+        <v>0.4649122807017544</v>
       </c>
       <c r="G64">
-        <v>0.3518518518518519</v>
+        <v>0.3580402010050251</v>
       </c>
       <c r="H64">
-        <v>0.256</v>
+        <v>0.226</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.7588652482269503</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C65">
-        <v>0.5148285449490269</v>
+        <v>0.521970062771608</v>
       </c>
       <c r="D65">
-        <v>0.5182481751824818</v>
+        <v>0.5522388059701493</v>
       </c>
       <c r="E65">
-        <v>0.4476439790575916</v>
+        <v>0.412303664921466</v>
       </c>
       <c r="F65">
-        <v>0.5051546391752577</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="G65">
-        <v>0.3538840937114673</v>
+        <v>0.3466833541927409</v>
       </c>
       <c r="H65">
-        <v>0.252</v>
+        <v>0.228</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.7651006711409396</v>
+        <v>0.8242424242424242</v>
       </c>
       <c r="C66">
-        <v>0.5145454545454545</v>
+        <v>0.5195610687022901</v>
       </c>
       <c r="D66">
-        <v>0.4583333333333333</v>
+        <v>0.5634920634920635</v>
       </c>
       <c r="E66">
-        <v>0.4489528795811518</v>
+        <v>0.4146981627296588</v>
       </c>
       <c r="F66">
-        <v>0.4646464646464646</v>
+        <v>0.4056603773584906</v>
       </c>
       <c r="G66">
-        <v>0.3659730722154223</v>
+        <v>0.3536737235367373</v>
       </c>
       <c r="H66">
-        <v>0.236</v>
+        <v>0.226</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.7814569536423841</v>
+        <v>0.7707006369426752</v>
       </c>
       <c r="C67">
-        <v>0.5123706702654071</v>
+        <v>0.5206766917293233</v>
       </c>
       <c r="D67">
-        <v>0.4666666666666667</v>
+        <v>0.5275590551181102</v>
       </c>
       <c r="E67">
-        <v>0.4578005115089514</v>
+        <v>0.4190600522193211</v>
       </c>
       <c r="F67">
-        <v>0.4791666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="G67">
-        <v>0.3685503685503685</v>
+        <v>0.3566958698372966</v>
       </c>
       <c r="H67">
-        <v>0.24</v>
+        <v>0.234</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.7639751552795031</v>
+        <v>0.8013245033112583</v>
       </c>
       <c r="C68">
-        <v>0.5089126559714795</v>
+        <v>0.5229060620083295</v>
       </c>
       <c r="D68">
-        <v>0.4571428571428571</v>
+        <v>0.5474452554744526</v>
       </c>
       <c r="E68">
-        <v>0.4557124518613607</v>
+        <v>0.4261437908496732</v>
       </c>
       <c r="F68">
-        <v>0.4811320754716981</v>
+        <v>0.4035087719298245</v>
       </c>
       <c r="G68">
-        <v>0.3702337023370234</v>
+        <v>0.3579474342928661</v>
       </c>
       <c r="H68">
-        <v>0.24</v>
+        <v>0.232</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.754601226993865</v>
+        <v>0.7615894039735099</v>
       </c>
       <c r="C69">
-        <v>0.5059866962305987</v>
+        <v>0.5178571428571429</v>
       </c>
       <c r="D69">
-        <v>0.4615384615384616</v>
+        <v>0.5413533834586466</v>
       </c>
       <c r="E69">
-        <v>0.4472681067344346</v>
+        <v>0.4300791556728232</v>
       </c>
       <c r="F69">
-        <v>0.485981308411215</v>
+        <v>0.3535353535353535</v>
       </c>
       <c r="G69">
-        <v>0.3676286072772899</v>
+        <v>0.3574144486692015</v>
       </c>
       <c r="H69">
-        <v>0.232</v>
+        <v>0.238</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.8333333333333334</v>
+        <v>0.7870967741935484</v>
       </c>
       <c r="C70">
-        <v>0.5057420494699647</v>
+        <v>0.5208522212148685</v>
       </c>
       <c r="D70">
-        <v>0.4910714285714285</v>
+        <v>0.5859375</v>
       </c>
       <c r="E70">
-        <v>0.4471649484536083</v>
+        <v>0.4296977660972405</v>
       </c>
       <c r="F70">
-        <v>0.5</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="G70">
-        <v>0.3563218390804598</v>
+        <v>0.3671199011124845</v>
       </c>
       <c r="H70">
-        <v>0.248</v>
+        <v>0.232</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.8214285714285714</v>
+        <v>0.7515151515151515</v>
       </c>
       <c r="C71">
-        <v>0.4960767218831735</v>
+        <v>0.5142083897158322</v>
       </c>
       <c r="D71">
-        <v>0.5153846153846153</v>
+        <v>0.5496183206106871</v>
       </c>
       <c r="E71">
-        <v>0.4468629961587708</v>
+        <v>0.4272486772486773</v>
       </c>
       <c r="F71">
-        <v>0.4793388429752066</v>
+        <v>0.4329896907216495</v>
       </c>
       <c r="G71">
-        <v>0.3650190114068441</v>
+        <v>0.3610062893081761</v>
       </c>
       <c r="H71">
-        <v>0.246</v>
+        <v>0.232</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.7692307692307693</v>
+        <v>0.8092105263157895</v>
       </c>
       <c r="C72">
-        <v>0.4969801553062985</v>
+        <v>0.5170250896057348</v>
       </c>
       <c r="D72">
-        <v>0.6181818181818182</v>
+        <v>0.5973154362416108</v>
       </c>
       <c r="E72">
-        <v>0.4471649484536083</v>
+        <v>0.4283819628647215</v>
       </c>
       <c r="F72">
-        <v>0.5050505050505051</v>
+        <v>0.4339622641509434</v>
       </c>
       <c r="G72">
-        <v>0.370417193426043</v>
+        <v>0.3558052434456929</v>
       </c>
       <c r="H72">
-        <v>0.244</v>
+        <v>0.234</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.7752808988764045</v>
+        <v>0.78</v>
       </c>
       <c r="C73">
-        <v>0.4991416309012875</v>
+        <v>0.5150309460654289</v>
       </c>
       <c r="D73">
-        <v>0.5213675213675214</v>
+        <v>0.5562913907284768</v>
       </c>
       <c r="E73">
-        <v>0.432741116751269</v>
+        <v>0.4164420485175202</v>
       </c>
       <c r="F73">
-        <v>0.46875</v>
+        <v>0.3854166666666667</v>
       </c>
       <c r="G73">
-        <v>0.373134328358209</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="H73">
-        <v>0.246</v>
+        <v>0.224</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.7566137566137566</v>
+        <v>0.7905405405405406</v>
       </c>
       <c r="C74">
-        <v>0.4961406518010292</v>
+        <v>0.5158764680295781</v>
       </c>
       <c r="D74">
-        <v>0.5130434782608696</v>
+        <v>0.503448275862069</v>
       </c>
       <c r="E74">
-        <v>0.4390563564875491</v>
+        <v>0.4203480589022758</v>
       </c>
       <c r="F74">
-        <v>0.5306122448979592</v>
+        <v>0.4423076923076923</v>
       </c>
       <c r="G74">
-        <v>0.3734335839598997</v>
+        <v>0.3574051407588739</v>
       </c>
       <c r="H74">
-        <v>0.254</v>
+        <v>0.222</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.7678571428571429</v>
+        <v>0.8141025641025641</v>
       </c>
       <c r="C75">
-        <v>0.4963875903102423</v>
+        <v>0.5139905294877314</v>
       </c>
       <c r="D75">
-        <v>0.4803149606299212</v>
+        <v>0.5725806451612904</v>
       </c>
       <c r="E75">
-        <v>0.4330299089726918</v>
+        <v>0.4223684210526316</v>
       </c>
       <c r="F75">
-        <v>0.4054054054054054</v>
+        <v>0.4835164835164835</v>
       </c>
       <c r="G75">
-        <v>0.369538077403246</v>
+        <v>0.3595092024539877</v>
       </c>
       <c r="H75">
-        <v>0.258</v>
+        <v>0.218</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.8</v>
+        <v>0.7716049382716049</v>
       </c>
       <c r="C76">
-        <v>0.4954128440366973</v>
+        <v>0.5113006396588486</v>
       </c>
       <c r="D76">
-        <v>0.5094339622641509</v>
+        <v>0.5819672131147541</v>
       </c>
       <c r="E76">
-        <v>0.4453024453024453</v>
+        <v>0.4168797953964195</v>
       </c>
       <c r="F76">
-        <v>0.4842105263157895</v>
+        <v>0.48</v>
       </c>
       <c r="G76">
-        <v>0.3745318352059925</v>
+        <v>0.3564476885644769</v>
       </c>
       <c r="H76">
-        <v>0.258</v>
+        <v>0.218</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.7672955974842768</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C77">
-        <v>0.4882764294529001</v>
+        <v>0.5174319727891157</v>
       </c>
       <c r="D77">
-        <v>0.5495495495495496</v>
+        <v>0.5317460317460317</v>
       </c>
       <c r="E77">
-        <v>0.4395465994962217</v>
+        <v>0.4186351706036746</v>
       </c>
       <c r="F77">
-        <v>0.4259259259259259</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="G77">
-        <v>0.375</v>
+        <v>0.3603491271820449</v>
       </c>
       <c r="H77">
-        <v>0.266</v>
+        <v>0.226</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.7556818181818182</v>
+        <v>0.7542857142857143</v>
       </c>
       <c r="C78">
-        <v>0.4881439084219134</v>
+        <v>0.5141529362061682</v>
       </c>
       <c r="D78">
-        <v>0.5948275862068966</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="E78">
-        <v>0.4325699745547074</v>
+        <v>0.417989417989418</v>
       </c>
       <c r="F78">
-        <v>0.3962264150943396</v>
+        <v>0.3805309734513274</v>
       </c>
       <c r="G78">
-        <v>0.369538077403246</v>
+        <v>0.3634085213032581</v>
       </c>
       <c r="H78">
-        <v>0.272</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.7607361963190185</v>
+        <v>0.7371428571428571</v>
       </c>
       <c r="C79">
-        <v>0.4853896103896104</v>
+        <v>0.5164835164835165</v>
       </c>
       <c r="D79">
-        <v>0.5581395348837209</v>
+        <v>0.4779411764705883</v>
       </c>
       <c r="E79">
-        <v>0.4382165605095542</v>
+        <v>0.4174496644295302</v>
       </c>
       <c r="F79">
-        <v>0.4380952380952381</v>
+        <v>0.4</v>
       </c>
       <c r="G79">
-        <v>0.3746898263027295</v>
+        <v>0.3597951344430217</v>
       </c>
       <c r="H79">
-        <v>0.266</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.7891566265060241</v>
+        <v>0.7976878612716763</v>
       </c>
       <c r="C80">
-        <v>0.4864</v>
+        <v>0.5166527893422148</v>
       </c>
       <c r="D80">
-        <v>0.6074766355140186</v>
+        <v>0.4244604316546763</v>
       </c>
       <c r="E80">
-        <v>0.4320512820512821</v>
+        <v>0.4121532364597094</v>
       </c>
       <c r="F80">
-        <v>0.4423076923076923</v>
+        <v>0.4380165289256198</v>
       </c>
       <c r="G80">
-        <v>0.3762254901960784</v>
+        <v>0.3575909661229611</v>
       </c>
       <c r="H80">
-        <v>0.262</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.7865853658536586</v>
+        <v>0.791907514450867</v>
       </c>
       <c r="C81">
-        <v>0.4859071059944423</v>
+        <v>0.5098441345365053</v>
       </c>
       <c r="D81">
-        <v>0.5092592592592593</v>
+        <v>0.4913793103448276</v>
       </c>
       <c r="E81">
-        <v>0.4318181818181818</v>
+        <v>0.4147286821705427</v>
       </c>
       <c r="F81">
-        <v>0.5056179775280899</v>
+        <v>0.4752475247524752</v>
       </c>
       <c r="G81">
-        <v>0.3740740740740741</v>
+        <v>0.3577639751552795</v>
       </c>
       <c r="H81">
-        <v>0.254</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.7771084337349398</v>
+        <v>0.8058823529411765</v>
       </c>
       <c r="C82">
-        <v>0.4841363102232668</v>
+        <v>0.5125607779578606</v>
       </c>
       <c r="D82">
-        <v>0.4508196721311475</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="E82">
-        <v>0.4325346784363178</v>
+        <v>0.404040404040404</v>
       </c>
       <c r="F82">
-        <v>0.4803921568627451</v>
+        <v>0.4639175257731959</v>
       </c>
       <c r="G82">
-        <v>0.3746987951807229</v>
+        <v>0.3545232273838631</v>
       </c>
       <c r="H82">
-        <v>0.256</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.7894736842105263</v>
+        <v>0.7900552486187845</v>
       </c>
       <c r="C83">
-        <v>0.4815390594636611</v>
+        <v>0.5106811769447803</v>
       </c>
       <c r="D83">
-        <v>0.5533980582524272</v>
+        <v>0.5</v>
       </c>
       <c r="E83">
-        <v>0.434010152284264</v>
+        <v>0.4086294416243655</v>
       </c>
       <c r="F83">
-        <v>0.5164835164835165</v>
+        <v>0.4886363636363636</v>
       </c>
       <c r="G83">
-        <v>0.3746958637469586</v>
+        <v>0.3547589616810878</v>
       </c>
       <c r="H83">
-        <v>0.26</v>
+        <v>0.224</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.7678571428571429</v>
+        <v>0.8176795580110497</v>
       </c>
       <c r="C84">
-        <v>0.4816531479335651</v>
+        <v>0.5068054443554844</v>
       </c>
       <c r="D84">
-        <v>0.5700934579439252</v>
+        <v>0.48</v>
       </c>
       <c r="E84">
-        <v>0.4267515923566879</v>
+        <v>0.4056482670089859</v>
       </c>
       <c r="F84">
-        <v>0.4947368421052631</v>
+        <v>0.3584905660377358</v>
       </c>
       <c r="G84">
-        <v>0.3672456575682382</v>
+        <v>0.3528693528693529</v>
       </c>
       <c r="H84">
-        <v>0.256</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.7619047619047619</v>
+        <v>0.7965116279069767</v>
       </c>
       <c r="C85">
-        <v>0.4860420650095602</v>
+        <v>0.5059429477020603</v>
       </c>
       <c r="D85">
-        <v>0.5038759689922481</v>
+        <v>0.5545454545454546</v>
       </c>
       <c r="E85">
-        <v>0.4289405684754522</v>
+        <v>0.4057217165149545</v>
       </c>
       <c r="F85">
-        <v>0.4545454545454545</v>
+        <v>0.3152173913043478</v>
       </c>
       <c r="G85">
-        <v>0.3723270440251572</v>
+        <v>0.3574097135740971</v>
       </c>
       <c r="H85">
-        <v>0.24</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.7543859649122807</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="C86">
-        <v>0.484006092916984</v>
+        <v>0.5046948356807511</v>
       </c>
       <c r="D86">
-        <v>0.4242424242424243</v>
+        <v>0.4672131147540984</v>
       </c>
       <c r="E86">
-        <v>0.4347826086956522</v>
+        <v>0.4086845466155811</v>
       </c>
       <c r="F86">
-        <v>0.412280701754386</v>
+        <v>0.3861386138613861</v>
       </c>
       <c r="G86">
-        <v>0.3782051282051282</v>
+        <v>0.3587223587223587</v>
       </c>
       <c r="H86">
-        <v>0.228</v>
+        <v>0.242</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.7839506172839507</v>
+        <v>0.8083832335329342</v>
       </c>
       <c r="C87">
-        <v>0.4839197881195611</v>
+        <v>0.5031323414252153</v>
       </c>
       <c r="D87">
-        <v>0.4444444444444444</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="E87">
-        <v>0.4334650856389987</v>
+        <v>0.4130718954248366</v>
       </c>
       <c r="F87">
-        <v>0.4434782608695652</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="G87">
-        <v>0.3730964467005076</v>
+        <v>0.3516896120150187</v>
       </c>
       <c r="H87">
-        <v>0.248</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.7894736842105263</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="C88">
-        <v>0.4814398200224972</v>
+        <v>0.4998067259373792</v>
       </c>
       <c r="D88">
-        <v>0.5039370078740157</v>
+        <v>0.5968992248062015</v>
       </c>
       <c r="E88">
-        <v>0.4347258485639687</v>
+        <v>0.4075520833333333</v>
       </c>
       <c r="F88">
-        <v>0.5247524752475248</v>
+        <v>0.4018691588785047</v>
       </c>
       <c r="G88">
-        <v>0.3632911392405063</v>
+        <v>0.3483146067415731</v>
       </c>
       <c r="H88">
-        <v>0.252</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.8068181818181818</v>
+        <v>0.76875</v>
       </c>
       <c r="C89">
-        <v>0.4816053511705686</v>
+        <v>0.50171298058622</v>
       </c>
       <c r="D89">
-        <v>0.4806201550387597</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="E89">
-        <v>0.4317010309278351</v>
+        <v>0.4020752269779507</v>
       </c>
       <c r="F89">
-        <v>0.4528301886792453</v>
+        <v>0.4081632653061225</v>
       </c>
       <c r="G89">
-        <v>0.3646477132262052</v>
+        <v>0.3458177278401998</v>
       </c>
       <c r="H89">
-        <v>0.238</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.8048780487804879</v>
+        <v>0.7378048780487805</v>
       </c>
       <c r="C90">
-        <v>0.4769287559985235</v>
+        <v>0.50151171579743</v>
       </c>
       <c r="D90">
-        <v>0.4369747899159664</v>
+        <v>0.5158730158730159</v>
       </c>
       <c r="E90">
-        <v>0.4307891332470893</v>
+        <v>0.3981723237597911</v>
       </c>
       <c r="F90">
-        <v>0.3977272727272727</v>
+        <v>0.3980582524271845</v>
       </c>
       <c r="G90">
-        <v>0.3709677419354839</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="H90">
-        <v>0.234</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.7935483870967742</v>
+        <v>0.7792207792207793</v>
       </c>
       <c r="C91">
-        <v>0.4769568397951719</v>
+        <v>0.5045078888054094</v>
       </c>
       <c r="D91">
-        <v>0.5083333333333333</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E91">
-        <v>0.4255874673629243</v>
+        <v>0.4106910039113429</v>
       </c>
       <c r="F91">
         <v>0.4193548387096774</v>
       </c>
       <c r="G91">
-        <v>0.3819530284301607</v>
+        <v>0.3516209476309227</v>
       </c>
       <c r="H91">
-        <v>0.236</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.7888198757763976</v>
+        <v>0.7425149700598802</v>
       </c>
       <c r="C92">
-        <v>0.4779464931308749</v>
+        <v>0.5029520295202952</v>
       </c>
       <c r="D92">
-        <v>0.552</v>
+        <v>0.5112781954887218</v>
       </c>
       <c r="E92">
-        <v>0.4162303664921466</v>
+        <v>0.4031007751937984</v>
       </c>
       <c r="F92">
-        <v>0.4601769911504425</v>
+        <v>0.35</v>
       </c>
       <c r="G92">
-        <v>0.3763975155279503</v>
+        <v>0.3506815365551425</v>
       </c>
       <c r="H92">
-        <v>0.238</v>
+        <v>0.256</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.7716049382716049</v>
+        <v>0.7844311377245509</v>
       </c>
       <c r="C93">
-        <v>0.4755747126436782</v>
+        <v>0.5066568047337278</v>
       </c>
       <c r="D93">
-        <v>0.5327868852459017</v>
+        <v>0.5038759689922481</v>
       </c>
       <c r="E93">
-        <v>0.4118404118404118</v>
+        <v>0.4021164021164021</v>
       </c>
       <c r="F93">
-        <v>0.4411764705882353</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="G93">
-        <v>0.3722084367245658</v>
+        <v>0.3495630461922597</v>
       </c>
       <c r="H93">
-        <v>0.232</v>
+        <v>0.256</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.7469135802469136</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C94">
-        <v>0.4751596877217885</v>
+        <v>0.5044085231447465</v>
       </c>
       <c r="D94">
-        <v>0.5092592592592593</v>
+        <v>0.4647887323943662</v>
       </c>
       <c r="E94">
-        <v>0.4189873417721519</v>
+        <v>0.3981358189081225</v>
       </c>
       <c r="F94">
-        <v>0.4731182795698925</v>
+        <v>0.4245283018867925</v>
       </c>
       <c r="G94">
-        <v>0.3725728155339806</v>
+        <v>0.3382899628252788</v>
       </c>
       <c r="H94">
-        <v>0.236</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.774390243902439</v>
+        <v>0.7653631284916201</v>
       </c>
       <c r="C95">
-        <v>0.4756527875793931</v>
+        <v>0.5049288061336255</v>
       </c>
       <c r="D95">
-        <v>0.509090909090909</v>
+        <v>0.4817518248175183</v>
       </c>
       <c r="E95">
-        <v>0.4343949044585987</v>
+        <v>0.4013513513513514</v>
       </c>
       <c r="F95">
-        <v>0.4125</v>
+        <v>0.44</v>
       </c>
       <c r="G95">
-        <v>0.3682266009852217</v>
+        <v>0.3514538558786346</v>
       </c>
       <c r="H95">
-        <v>0.236</v>
+        <v>0.226</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.7677419354838709</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="C96">
-        <v>0.4771059070255155</v>
+        <v>0.5030763662685487</v>
       </c>
       <c r="D96">
-        <v>0.5271317829457365</v>
+        <v>0.5149253731343284</v>
       </c>
       <c r="E96">
-        <v>0.4374193548387097</v>
+        <v>0.3989501312335958</v>
       </c>
       <c r="F96">
-        <v>0.3394495412844037</v>
+        <v>0.4128440366972477</v>
       </c>
       <c r="G96">
-        <v>0.3700980392156863</v>
+        <v>0.355638166047088</v>
       </c>
       <c r="H96">
-        <v>0.244</v>
+        <v>0.222</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.7579617834394905</v>
+        <v>0.7590361445783133</v>
       </c>
       <c r="C97">
-        <v>0.4752509518864659</v>
+        <v>0.5021520803443329</v>
       </c>
       <c r="D97">
-        <v>0.4117647058823529</v>
+        <v>0.5042016806722689</v>
       </c>
       <c r="E97">
-        <v>0.4387096774193548</v>
+        <v>0.3932729624838293</v>
       </c>
       <c r="F97">
-        <v>0.3137254901960784</v>
+        <v>0.4038461538461539</v>
       </c>
       <c r="G97">
-        <v>0.369727047146402</v>
+        <v>0.3569651741293532</v>
       </c>
       <c r="H97">
-        <v>0.254</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,25 +2922,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.7272727272727273</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="C98">
-        <v>0.4777816052359628</v>
+        <v>0.5017743080198722</v>
       </c>
       <c r="D98">
-        <v>0.4649122807017544</v>
+        <v>0.5040650406504065</v>
       </c>
       <c r="E98">
-        <v>0.4506493506493506</v>
+        <v>0.3961290322580645</v>
       </c>
       <c r="F98">
-        <v>0.3402061855670103</v>
+        <v>0.4128440366972477</v>
       </c>
       <c r="G98">
-        <v>0.3595505617977528</v>
+        <v>0.3588456712672522</v>
       </c>
       <c r="H98">
-        <v>0.272</v>
+        <v>0.216</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.7625</v>
+        <v>0.7544910179640718</v>
       </c>
       <c r="C99">
-        <v>0.4787087912087912</v>
+        <v>0.498943661971831</v>
       </c>
       <c r="D99">
-        <v>0.432</v>
+        <v>0.4957983193277311</v>
       </c>
       <c r="E99">
-        <v>0.4483660130718954</v>
+        <v>0.3966623876765084</v>
       </c>
       <c r="F99">
-        <v>0.3142857142857143</v>
+        <v>0.4485981308411215</v>
       </c>
       <c r="G99">
-        <v>0.3417402269861286</v>
+        <v>0.3609022556390977</v>
       </c>
       <c r="H99">
-        <v>0.284</v>
+        <v>0.196</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.7919463087248322</v>
+        <v>0.7483870967741936</v>
       </c>
       <c r="C100">
-        <v>0.4788684389911384</v>
+        <v>0.5001750087504375</v>
       </c>
       <c r="D100">
-        <v>0.4173228346456693</v>
+        <v>0.5130434782608696</v>
       </c>
       <c r="E100">
-        <v>0.4438642297650131</v>
+        <v>0.4012987012987013</v>
       </c>
       <c r="F100">
-        <v>0.3195876288659794</v>
+        <v>0.4851485148514851</v>
       </c>
       <c r="G100">
-        <v>0.3508114856429463</v>
+        <v>0.360655737704918</v>
       </c>
       <c r="H100">
-        <v>0.274</v>
+        <v>0.176</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.7702702702702703</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="C101">
-        <v>0.4781144781144781</v>
+        <v>0.5001733102253033</v>
       </c>
       <c r="D101">
-        <v>0.4344262295081967</v>
+        <v>0.5433070866141733</v>
       </c>
       <c r="E101">
-        <v>0.4398447606727037</v>
+        <v>0.4057217165149545</v>
       </c>
       <c r="F101">
-        <v>0.3469387755102041</v>
+        <v>0.4330708661417323</v>
       </c>
       <c r="G101">
-        <v>0.347985347985348</v>
+        <v>0.3581336696090794</v>
       </c>
       <c r="H101">
-        <v>0.266</v>
+        <v>0.18</v>
       </c>
     </row>
   </sheetData>
